--- a/_1/Чек листы Создания нового пользователя.xlsx
+++ b/_1/Чек листы Создания нового пользователя.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="6225" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Check_list_REG" sheetId="1" r:id="rId1"/>
@@ -3928,8 +3928,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21171912832929787"/>
-          <c:y val="0.18005434179882446"/>
+          <c:x val="0.21171912832929793"/>
+          <c:y val="0.18005434179882449"/>
           <c:w val="0.63315729601596415"/>
           <c:h val="0.64446896602713388"/>
         </c:manualLayout>
@@ -4034,7 +4034,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0290901137358098E-3"/>
+          <c:x val="7.0290901137358116E-3"/>
           <c:y val="1.4891367745698753E-3"/>
           <c:w val="0.17584996790655405"/>
           <c:h val="0.33028152302879948"/>
@@ -4045,7 +4045,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4091,8 +4091,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21171912832929796"/>
-          <c:y val="0.18005434179882451"/>
+          <c:x val="0.21171912832929798"/>
+          <c:y val="0.18005434179882454"/>
           <c:w val="0.63315729601596415"/>
           <c:h val="0.64446896602713388"/>
         </c:manualLayout>
@@ -4197,10 +4197,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0290901137358133E-3"/>
+          <c:x val="7.0290901137358142E-3"/>
           <c:y val="1.4891367745698753E-3"/>
           <c:w val="0.17584996790655405"/>
-          <c:h val="0.33958522790285067"/>
+          <c:h val="0.33958522790285084"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -4208,7 +4208,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4254,8 +4254,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21171912832929801"/>
-          <c:y val="0.18005434179882457"/>
+          <c:x val="0.21171912832929804"/>
+          <c:y val="0.18005434179882462"/>
           <c:w val="0.63315729601596415"/>
           <c:h val="0.64446896602713388"/>
         </c:manualLayout>
@@ -4360,10 +4360,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0290901137358159E-3"/>
+          <c:x val="7.0290901137358176E-3"/>
           <c:y val="1.4891367745698753E-3"/>
           <c:w val="0.17584996790655405"/>
-          <c:h val="0.33958522790285101"/>
+          <c:h val="0.33958522790285117"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -4371,7 +4371,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4607,25 +4607,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61441152"/>
-        <c:axId val="61442688"/>
+        <c:axId val="104368768"/>
+        <c:axId val="104382848"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61441152"/>
+        <c:axId val="104368768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61442688"/>
+        <c:crossAx val="104382848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61442688"/>
+        <c:axId val="104382848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4633,20 +4633,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61441152"/>
+        <c:crossAx val="104368768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5064,8 +5063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7346,7 +7345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/_1/Чек листы Создания нового пользователя.xlsx
+++ b/_1/Чек листы Создания нового пользователя.xlsx
@@ -3902,7 +3902,6 @@
   <c:lang val="ru-RU"/>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3928,8 +3927,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21171912832929793"/>
-          <c:y val="0.18005434179882449"/>
+          <c:x val="0.21171912832929798"/>
+          <c:y val="0.18005434179882454"/>
           <c:w val="0.63315729601596415"/>
           <c:h val="0.64446896602713388"/>
         </c:manualLayout>
@@ -4034,7 +4033,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0290901137358116E-3"/>
+          <c:x val="7.0290901137358142E-3"/>
           <c:y val="1.4891367745698753E-3"/>
           <c:w val="0.17584996790655405"/>
           <c:h val="0.33028152302879948"/>
@@ -4045,7 +4044,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4079,7 +4078,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -4091,8 +4089,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21171912832929798"/>
-          <c:y val="0.18005434179882454"/>
+          <c:x val="0.21171912832929804"/>
+          <c:y val="0.18005434179882462"/>
           <c:w val="0.63315729601596415"/>
           <c:h val="0.64446896602713388"/>
         </c:manualLayout>
@@ -4197,10 +4195,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0290901137358142E-3"/>
+          <c:x val="7.0290901137358176E-3"/>
           <c:y val="1.4891367745698753E-3"/>
           <c:w val="0.17584996790655405"/>
-          <c:h val="0.33958522790285084"/>
+          <c:h val="0.33958522790285117"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -4208,7 +4206,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4242,7 +4240,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -4254,8 +4251,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21171912832929804"/>
-          <c:y val="0.18005434179882462"/>
+          <c:x val="0.21171912832929812"/>
+          <c:y val="0.18005434179882474"/>
           <c:w val="0.63315729601596415"/>
           <c:h val="0.64446896602713388"/>
         </c:manualLayout>
@@ -4360,10 +4357,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0290901137358176E-3"/>
+          <c:x val="7.0290901137358202E-3"/>
           <c:y val="1.4891367745698753E-3"/>
           <c:w val="0.17584996790655405"/>
-          <c:h val="0.33958522790285117"/>
+          <c:h val="0.33958522790285151"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -4371,7 +4368,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4607,25 +4604,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="104368768"/>
-        <c:axId val="104382848"/>
+        <c:axId val="122621312"/>
+        <c:axId val="122627200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="104368768"/>
+        <c:axId val="122621312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104382848"/>
+        <c:crossAx val="122627200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104382848"/>
+        <c:axId val="122627200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4633,7 +4630,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104368768"/>
+        <c:crossAx val="122621312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4645,7 +4642,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5063,8 +5060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6848,7 +6845,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/_1/Чек листы Создания нового пользователя.xlsx
+++ b/_1/Чек листы Создания нового пользователя.xlsx
@@ -3927,8 +3927,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21171912832929798"/>
-          <c:y val="0.18005434179882454"/>
+          <c:x val="0.21171912832929807"/>
+          <c:y val="0.18005434179882468"/>
           <c:w val="0.63315729601596415"/>
           <c:h val="0.64446896602713388"/>
         </c:manualLayout>
@@ -4033,7 +4033,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0290901137358142E-3"/>
+          <c:x val="7.0290901137358194E-3"/>
           <c:y val="1.4891367745698753E-3"/>
           <c:w val="0.17584996790655405"/>
           <c:h val="0.33028152302879948"/>
@@ -4044,7 +4044,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4089,8 +4089,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21171912832929804"/>
-          <c:y val="0.18005434179882462"/>
+          <c:x val="0.21171912832929818"/>
+          <c:y val="0.18005434179882476"/>
           <c:w val="0.63315729601596415"/>
           <c:h val="0.64446896602713388"/>
         </c:manualLayout>
@@ -4195,10 +4195,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0290901137358176E-3"/>
+          <c:x val="7.029090113735822E-3"/>
           <c:y val="1.4891367745698753E-3"/>
           <c:w val="0.17584996790655405"/>
-          <c:h val="0.33958522790285117"/>
+          <c:h val="0.33958522790285167"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -4206,7 +4206,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4251,8 +4251,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21171912832929812"/>
-          <c:y val="0.18005434179882474"/>
+          <c:x val="0.21171912832929826"/>
+          <c:y val="0.18005434179882482"/>
           <c:w val="0.63315729601596415"/>
           <c:h val="0.64446896602713388"/>
         </c:manualLayout>
@@ -4357,10 +4357,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0290901137358202E-3"/>
+          <c:x val="7.0290901137358254E-3"/>
           <c:y val="1.4891367745698753E-3"/>
           <c:w val="0.17584996790655405"/>
-          <c:h val="0.33958522790285151"/>
+          <c:h val="0.339585227902852"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -4368,7 +4368,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4604,25 +4604,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="122621312"/>
-        <c:axId val="122627200"/>
+        <c:axId val="113289856"/>
+        <c:axId val="113303936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="122621312"/>
+        <c:axId val="113289856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122627200"/>
+        <c:crossAx val="113303936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122627200"/>
+        <c:axId val="113303936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4630,7 +4630,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122621312"/>
+        <c:crossAx val="113289856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4642,7 +4642,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5060,8 +5060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6845,7 +6845,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7439,7 +7439,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="50">
-        <f t="shared" ref="I7:I9" si="0">G7+H7</f>
+        <f>G7+H7</f>
         <v>17</v>
       </c>
     </row>
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="50">
-        <f t="shared" si="0"/>
+        <f>G8+H8</f>
         <v>0</v>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="50">
-        <f t="shared" si="0"/>
+        <f>G9+H9</f>
         <v>7</v>
       </c>
     </row>

--- a/_1/Чек листы Создания нового пользователя.xlsx
+++ b/_1/Чек листы Создания нового пользователя.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="224">
   <si>
     <t>ID</t>
   </si>
@@ -2009,9 +2009,6 @@
     </r>
   </si>
   <si>
-    <t>123456789l</t>
-  </si>
-  <si>
     <t>123456%</t>
   </si>
   <si>
@@ -3209,16 +3206,6 @@
     </r>
   </si>
   <si>
-    <t>bug_Reg_P_5_max</t>
-  </si>
-  <si>
-    <t>bug_Reg_P_7_max</t>
-  </si>
-  <si>
-    <t>bug_Reg_P_5_max
-bugReg_P_7_max</t>
-  </si>
-  <si>
     <t>Reg_N_5_max</t>
   </si>
   <si>
@@ -3357,6 +3344,48 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>G108-184</t>
+  </si>
+  <si>
+    <t>dubl</t>
+  </si>
+  <si>
+    <t>G108-185</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>G108-187</t>
+  </si>
+  <si>
+    <t>G108-186</t>
+  </si>
+  <si>
+    <t>123456789r</t>
+  </si>
+  <si>
+    <t>G108-188</t>
+  </si>
+  <si>
+    <t>G108-189</t>
+  </si>
+  <si>
+    <t>G108-190</t>
+  </si>
+  <si>
+    <t>G108-191</t>
+  </si>
+  <si>
+    <t>G108-192</t>
+  </si>
+  <si>
+    <t>G108-193</t>
+  </si>
+  <si>
+    <t>G108-194</t>
   </si>
 </sst>
 </file>
@@ -3927,8 +3956,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21171912832929807"/>
-          <c:y val="0.18005434179882468"/>
+          <c:x val="0.21171912832929829"/>
+          <c:y val="0.18005434179882487"/>
           <c:w val="0.63315729601596415"/>
           <c:h val="0.64446896602713388"/>
         </c:manualLayout>
@@ -4033,7 +4062,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0290901137358194E-3"/>
+          <c:x val="7.0290901137358272E-3"/>
           <c:y val="1.4891367745698753E-3"/>
           <c:w val="0.17584996790655405"/>
           <c:h val="0.33028152302879948"/>
@@ -4044,7 +4073,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4089,8 +4118,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21171912832929818"/>
-          <c:y val="0.18005434179882476"/>
+          <c:x val="0.21171912832929837"/>
+          <c:y val="0.18005434179882496"/>
           <c:w val="0.63315729601596415"/>
           <c:h val="0.64446896602713388"/>
         </c:manualLayout>
@@ -4195,10 +4224,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.029090113735822E-3"/>
+          <c:x val="7.0290901137358306E-3"/>
           <c:y val="1.4891367745698753E-3"/>
           <c:w val="0.17584996790655405"/>
-          <c:h val="0.33958522790285167"/>
+          <c:h val="0.3395852279028525"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -4206,7 +4235,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4251,8 +4280,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21171912832929826"/>
-          <c:y val="0.18005434179882482"/>
+          <c:x val="0.21171912832929846"/>
+          <c:y val="0.18005434179882501"/>
           <c:w val="0.63315729601596415"/>
           <c:h val="0.64446896602713388"/>
         </c:manualLayout>
@@ -4357,10 +4386,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0290901137358254E-3"/>
+          <c:x val="7.0290901137358332E-3"/>
           <c:y val="1.4891367745698753E-3"/>
           <c:w val="0.17584996790655405"/>
-          <c:h val="0.339585227902852"/>
+          <c:h val="0.33958522790285284"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -4368,7 +4397,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4604,25 +4633,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="113289856"/>
-        <c:axId val="113303936"/>
+        <c:axId val="80425344"/>
+        <c:axId val="80426880"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="113289856"/>
+        <c:axId val="80425344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113303936"/>
+        <c:crossAx val="80426880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113303936"/>
+        <c:axId val="80426880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4630,7 +4659,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113289856"/>
+        <c:crossAx val="80425344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4642,7 +4671,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5060,8 +5089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5077,11 +5106,11 @@
   <sheetData>
     <row r="1" spans="1:11" s="27" customFormat="1" ht="59.25" customHeight="1">
       <c r="A1" s="69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="71"/>
       <c r="E1" s="71"/>
@@ -5099,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>2</v>
@@ -5111,10 +5140,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>4</v>
@@ -5126,13 +5155,13 @@
     </row>
     <row r="3" spans="1:11" ht="38.25">
       <c r="A3" s="56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="1" t="s">
@@ -5152,18 +5181,18 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="27" customFormat="1" ht="51">
       <c r="A4" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="1" t="s">
@@ -5182,22 +5211,22 @@
         <v>28</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" s="27" customFormat="1" ht="53.25" customHeight="1">
       <c r="A5" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -5215,19 +5244,19 @@
         <v>28</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" s="52" customFormat="1" ht="53.25" customHeight="1">
       <c r="A6" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="47" t="s">
         <v>168</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>169</v>
       </c>
       <c r="D6" s="49"/>
       <c r="E6" s="1" t="s">
@@ -5253,16 +5282,16 @@
     </row>
     <row r="7" spans="1:11" s="52" customFormat="1" ht="51">
       <c r="A7" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="D7" s="62" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -5284,21 +5313,21 @@
         <v>35</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="52" customFormat="1" ht="51">
       <c r="A8" s="56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -5320,13 +5349,13 @@
     </row>
     <row r="9" spans="1:11" s="52" customFormat="1" ht="51">
       <c r="A9" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="1" t="s">
@@ -5352,13 +5381,13 @@
     </row>
     <row r="10" spans="1:11" ht="38.25">
       <c r="A10" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="1" t="s">
@@ -5381,13 +5410,13 @@
     </row>
     <row r="11" spans="1:11" ht="25.5">
       <c r="A11" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="1" t="s">
@@ -5407,12 +5436,12 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="38.25">
       <c r="A12" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -5435,13 +5464,13 @@
         <v>28</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="63.75">
       <c r="A13" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>29</v>
@@ -5468,7 +5497,7 @@
     </row>
     <row r="14" spans="1:11" ht="63.75">
       <c r="A14" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -5494,12 +5523,12 @@
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="63.75">
       <c r="A15" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>20</v>
@@ -5525,21 +5554,21 @@
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="63.75">
       <c r="A16" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -5558,15 +5587,15 @@
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="76.5">
       <c r="A17" s="59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>56</v>
@@ -5588,15 +5617,15 @@
         <v>28</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="63.75">
       <c r="A18" s="61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>21</v>
@@ -5622,12 +5651,12 @@
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="63.75">
       <c r="A19" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>42</v>
@@ -5651,12 +5680,12 @@
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75">
       <c r="A20" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>39</v>
@@ -5682,12 +5711,12 @@
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="63.75">
       <c r="A21" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>40</v>
@@ -5696,7 +5725,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
@@ -5718,21 +5747,21 @@
         <v>46</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="63.75">
       <c r="A22" s="59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
@@ -5751,12 +5780,12 @@
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="63.75">
       <c r="A23" s="59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>46</v>
@@ -5765,7 +5794,7 @@
         <v>48</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
@@ -5784,20 +5813,22 @@
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="63.75">
       <c r="A24" s="59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="49"/>
+        <v>60</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>219</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
@@ -5815,18 +5846,18 @@
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="63.75">
       <c r="A25" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="1" t="s">
@@ -5846,12 +5877,12 @@
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="51">
       <c r="A26" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
@@ -5875,18 +5906,18 @@
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="51">
       <c r="A27" s="59" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="1" t="s">
@@ -5909,12 +5940,12 @@
         <v>36</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="51">
       <c r="A28" s="59" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>16</v>
@@ -5922,7 +5953,9 @@
       <c r="C28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="49"/>
+      <c r="D28" s="49" t="s">
+        <v>162</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
@@ -5940,20 +5973,22 @@
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="51">
       <c r="A29" s="59" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="49"/>
+        <v>89</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>213</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
@@ -5970,21 +6005,21 @@
         <v>28</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="18" customFormat="1" ht="51">
       <c r="A30" s="59" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="1" t="s">
@@ -6004,18 +6039,18 @@
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="19" customFormat="1" ht="51">
       <c r="A31" s="59" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="1" t="s">
@@ -6035,15 +6070,15 @@
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="51">
       <c r="A32" s="59" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>58</v>
@@ -6066,15 +6101,15 @@
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="18" customFormat="1" ht="63.75">
       <c r="A33" s="59" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>58</v>
@@ -6100,7 +6135,7 @@
     </row>
     <row r="34" spans="1:11" ht="51">
       <c r="A34" s="59" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>18</v>
@@ -6127,13 +6162,13 @@
     </row>
     <row r="35" spans="1:11" s="52" customFormat="1" ht="51">
       <c r="A35" s="59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35" s="49"/>
       <c r="E35" s="1" t="s">
@@ -6156,12 +6191,12 @@
         <v>36</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="51">
       <c r="A36" s="59" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -6169,7 +6204,9 @@
       <c r="C36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="49"/>
+      <c r="D36" s="49" t="s">
+        <v>223</v>
+      </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
       </c>
@@ -6189,15 +6226,17 @@
     </row>
     <row r="37" spans="1:11" ht="63.75">
       <c r="A37" s="59" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="49"/>
+        <v>90</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>213</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
@@ -6214,18 +6253,18 @@
         <v>28</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="19" customFormat="1" ht="63.75">
       <c r="A38" s="59" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D38" s="49"/>
       <c r="E38" s="1" t="s">
@@ -6247,10 +6286,10 @@
     </row>
     <row r="39" spans="1:11" ht="63.75">
       <c r="A39" s="59" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>57</v>
@@ -6275,10 +6314,10 @@
     </row>
     <row r="40" spans="1:11" s="19" customFormat="1" ht="63.75">
       <c r="A40" s="59" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>57</v>
@@ -6303,7 +6342,7 @@
     </row>
     <row r="41" spans="1:11" ht="51">
       <c r="A41" s="59" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>22</v>
@@ -6329,13 +6368,13 @@
     </row>
     <row r="42" spans="1:11" ht="51">
       <c r="A42" s="59" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="1" t="s">
@@ -6360,7 +6399,7 @@
     </row>
     <row r="43" spans="1:11" ht="51">
       <c r="A43" s="59" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>26</v>
@@ -6368,7 +6407,9 @@
       <c r="C43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="49"/>
+      <c r="D43" s="49" t="s">
+        <v>220</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
       </c>
@@ -6388,15 +6429,17 @@
     </row>
     <row r="44" spans="1:11" ht="51">
       <c r="A44" s="59" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="49"/>
+        <v>72</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>221</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
@@ -6417,15 +6460,17 @@
     </row>
     <row r="45" spans="1:11" ht="51">
       <c r="A45" s="59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="49"/>
+        <v>73</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>222</v>
+      </c>
       <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
@@ -6446,7 +6491,7 @@
     </row>
     <row r="46" spans="1:11" ht="51">
       <c r="A46" s="59" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>34</v>
@@ -6473,7 +6518,7 @@
     </row>
     <row r="47" spans="1:11" ht="51">
       <c r="A47" s="59" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>53</v>
@@ -6481,7 +6526,9 @@
       <c r="C47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="49"/>
+      <c r="D47" s="49" t="s">
+        <v>162</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>8</v>
       </c>
@@ -6502,15 +6549,17 @@
     </row>
     <row r="48" spans="1:11" ht="51">
       <c r="A48" s="59" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="49"/>
+        <v>177</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>162</v>
+      </c>
       <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
@@ -6534,13 +6583,13 @@
     </row>
     <row r="49" spans="1:11" ht="51">
       <c r="A49" s="59" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="1" t="s">
@@ -6563,13 +6612,13 @@
     </row>
     <row r="50" spans="1:11" ht="51">
       <c r="A50" s="59" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" s="49"/>
       <c r="E50" s="1" t="s">
@@ -6592,13 +6641,13 @@
     </row>
     <row r="51" spans="1:11" ht="51">
       <c r="A51" s="59" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" s="49"/>
       <c r="E51" s="1" t="s">
@@ -6621,7 +6670,7 @@
     </row>
     <row r="52" spans="1:11" ht="51">
       <c r="A52" s="59" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>27</v>
@@ -6644,7 +6693,7 @@
         <v>28</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -6761,7 +6810,7 @@
     </row>
     <row r="66" spans="2:9">
       <c r="B66" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" s="52"/>
       <c r="D66" s="54"/>
@@ -6783,12 +6832,12 @@
     </row>
     <row r="69" spans="2:9">
       <c r="B69" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="B70" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="2:9">
@@ -6845,7 +6894,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6865,103 +6914,103 @@
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="F1" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="58" t="s">
+      <c r="H1" s="58" t="s">
         <v>138</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30">
       <c r="C2" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="F2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="53">
         <v>1</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="53">
         <v>2</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="53">
         <v>3</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="32">
         <v>1234567</v>
@@ -6979,13 +7028,13 @@
     </row>
     <row r="7" spans="1:8" ht="30">
       <c r="A7" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="53">
         <v>4</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="32">
         <v>1234567</v>
@@ -7016,30 +7065,30 @@
         <v>15</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30">
       <c r="A10" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="53">
         <v>5</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>44</v>
@@ -7048,16 +7097,16 @@
         <v>44</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="53">
         <v>6</v>
@@ -7067,7 +7116,7 @@
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="46"/>
@@ -7075,13 +7124,13 @@
     </row>
     <row r="12" spans="1:8" ht="33" customHeight="1">
       <c r="A12" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="53">
         <v>7</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>43</v>
@@ -7090,22 +7139,22 @@
         <v>43</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="30">
       <c r="A13" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="53">
         <v>8</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>50</v>
@@ -7114,26 +7163,26 @@
         <v>50</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="53">
         <v>9</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -7141,17 +7190,17 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="53">
         <v>10</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
@@ -7168,13 +7217,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="53">
         <v>11</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="34">
@@ -7186,43 +7235,43 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="53">
         <v>12</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="53">
         <v>13</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -7230,17 +7279,17 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="53">
         <v>14</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -7248,33 +7297,33 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" s="53">
         <v>15</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="53">
         <v>16</v>
@@ -7304,11 +7353,11 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" s="31"/>
     </row>
@@ -7316,7 +7365,7 @@
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="8"/>
     </row>
@@ -7335,6 +7384,7 @@
     <hyperlink ref="G5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -7357,7 +7407,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="21" customHeight="1">
       <c r="B1" s="74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="74"/>
       <c r="D1" s="74"/>
@@ -7377,19 +7427,19 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="64" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E4" s="52"/>
     </row>
     <row r="5" spans="2:9">
       <c r="G5" s="50" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -7454,7 +7504,7 @@
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G8" s="50">
         <f>COUNTIF(C6:C13,F8)</f>
@@ -7521,7 +7571,7 @@
       </c>
       <c r="E11" s="52"/>
       <c r="F11" s="52" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G11" s="50">
         <f>SUM(G6:G9)</f>
@@ -7576,7 +7626,7 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="63" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
